--- a/data/Top_blogs.xlsx
+++ b/data/Top_blogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2 Work files\Izobraževanje\2019 Coursera Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2B8F6-F268-44F2-8066-5C8821AF3604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFDA6D9-B4BE-47FC-B552-0FA609E157FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{F40E2EB9-B377-4ECD-9441-FB4AAB6AC036}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Davisville Village</t>
   </si>
@@ -559,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFEB60-FCE4-45CB-A573-43B59D8E77B3}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +723,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -731,17 +731,9 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
         <v>1</v>
       </c>
     </row>
